--- a/biology/Histoire de la zoologie et de la botanique/C.Agardh/C.Agardh.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/C.Agardh/C.Agardh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Adolph Agardh est un botaniste, un mathématicien, un économiste et un homme politique suédois, né le 23 janvier 1785 à Båstad et mort le 28 janvier 1859 à Karlstad.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l'université de Lund et y enseigne, à partir de 1807, les mathématiques. Il s'intéresse particulièrement aux algues et est considéré comme l'un des fondateurs de leur étude scientifique. Il obtient la chaire de botanique et d'économie en 1812. Il fait paraître en 1817, Synopsis algarum Scandinaviae qu'il augmentera quelques années plus tard de Species algarum (1821–1828) et Systema algarum (1824).
 Il fait aussi paraître des ouvrages de botanique comme Aphorismi botanici (1817–1826) et Classes plantarum (1825) où il expose son système de classification.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Synopsis algarum Scandinaviae. Lund 1817.
 Species algarum rite cognitae etc. das. u. Greifswald 1823–1828, 2 Bde.
